--- a/biology/Zoologie/Hamadryas_epinome/Hamadryas_epinome.xlsx
+++ b/biology/Zoologie/Hamadryas_epinome/Hamadryas_epinome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadryas epinome est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Biblidinae et du genre Hamadryas.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadryas epinome a été décrit par Cajetan Freiherr von Felder et Rudolf Felder en 1867 sous le nom initial d' Ageronia epinome.
-Synonymes : Ageronia fall Staudinger, 1886 ; Ageronia epinome florentia Fruhstorfer, 1916 ; Ageronia epinome aldrina Martin, [1923] ; Peridromia epinome argentina Bryk, 1953[1].
-Nom vernaculaire
-Hamadryas epinome se nomme Epinome Cracker en anglais[2].
+Synonymes : Ageronia fall Staudinger, 1886 ; Ageronia epinome florentia Fruhstorfer, 1916 ; Ageronia epinome aldrina Martin,  ; Peridromia epinome argentina Bryk, 1953.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hamadryas epinome est un papillon aux ailes antérieures à bord costal bossu et bord externe concave, au dessus marbré de beige, de vieux rose, de bleu-gris et de blanc avec une ligne submarginale d'ocelles cernés de gris et pupillés, complète aux ailes postérieures, uniquement de trois ocelles vers l'apex aux ailes antérieures. Une marque rouge en croissant est visible au 1/3 du bord costal des ailes antérieures.
-Le revers des ailes antérieures présente une partie basale blanche et le reste de couleur marron suffusé de vert très largement taché de blanc. Les ailes postérieures sont blanches avec uniquement la marge marron taché de blanc et une ligne submarginale de cercles foncés.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas epinome se nomme Epinome Cracker en anglais.
 </t>
         </is>
       </c>
@@ -574,13 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes des chenilles des Hamadryas sont des Euphorbiaceae.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas epinome est un papillon aux ailes antérieures à bord costal bossu et bord externe concave, au dessus marbré de beige, de vieux rose, de bleu-gris et de blanc avec une ligne submarginale d'ocelles cernés de gris et pupillés, complète aux ailes postérieures, uniquement de trois ocelles vers l'apex aux ailes antérieures. Une marque rouge en croissant est visible au 1/3 du bord costal des ailes antérieures.
+Le revers des ailes antérieures présente une partie basale blanche et le reste de couleur marron suffusé de vert très largement taché de blanc. Les ailes postérieures sont blanches avec uniquement la marge marron taché de blanc et une ligne submarginale de cercles foncés.
 </t>
         </is>
       </c>
@@ -606,17 +625,90 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes des chenilles des Hamadryas sont des Euphorbiaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hamadryas_epinome</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_epinome</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas epinome est présent en Bolivie, au Paraguay, en Argentine et au Brésil[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas epinome est présent en Bolivie, au Paraguay, en Argentine et au Brésil.
 Sur les autres projets Wikimedia :
 Hamadryas epinome, sur Wikimedia CommonsHamadryas epinome, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hamadryas_epinome</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_epinome</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
